--- a/Dokumentation/Forundersøgelse/Testcase.xlsx
+++ b/Dokumentation/Forundersøgelse/Testcase.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen.FLIPPY_O\git\FlexMartinSteffen\Dokumentation\Forundersøgelse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zylle\git4\FlexMartinSteffen\Dokumentation\Forundersøgelse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>systemoperation</t>
   </si>
@@ -105,12 +105,33 @@
   </si>
   <si>
     <t>Navn = Steffen, Email = Email, TlfNummer = 12346789</t>
+  </si>
+  <si>
+    <t>prisberegner</t>
+  </si>
+  <si>
+    <t>beregnPris</t>
+  </si>
+  <si>
+    <t>start kommune= 7400, slutkommune= 7400, dato 12/12/2016</t>
+  </si>
+  <si>
+    <t>start kommune= 2100, slutkommune= 7400, dato 12/12/2016</t>
+  </si>
+  <si>
+    <t>unknowKommuneException</t>
+  </si>
+  <si>
+    <t>start kommune= 1234, slutkommune= 7400, dato 12/12/2016</t>
+  </si>
+  <si>
+    <t>NullPointerException</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,6 +259,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -273,6 +311,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kontor">
@@ -425,22 +480,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" customWidth="1"/>
+    <col min="5" max="5" width="56.44140625" customWidth="1"/>
     <col min="7" max="7" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -480,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -500,15 +555,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -531,7 +598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -551,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -571,7 +638,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -579,55 +666,98 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
         <v>10</v>
       </c>
     </row>
